--- a/media/uploader/uploadsheet.xlsx
+++ b/media/uploader/uploadsheet.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet2!$A$1:$W$14</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet2!$A$1:$W$14</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t xml:space="preserve">Series</t>
   </si>
@@ -106,19 +107,7 @@
     <t xml:space="preserve">i</t>
   </si>
   <si>
-    <t xml:space="preserve">P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28811202702175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">محمود الليثى محمود عبد العال </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">قنا  </t>
+    <t xml:space="preserve">26807191801431</t>
   </si>
   <si>
     <t xml:space="preserve">2021-06-30T00:00:00           </t>
@@ -173,6 +162,7 @@
       <color rgb="FF6A8759"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -327,29 +317,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ2"/>
+  <dimension ref="1:2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q10" activeCellId="0" sqref="Q10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="51.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="24.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="29.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="69.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="18" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="14.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="11.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="25" style="0" width="8.57"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.3238866396761"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.2429149797571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="51.7368421052632"/>
+    <col collapsed="false" hidden="false" max="13" min="8" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="69.7327935222672"/>
+    <col collapsed="false" hidden="false" max="20" min="18" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.1417004048583"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="11.246963562753"/>
+    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -427,7 +417,7 @@
       </c>
       <c r="AMJ1" s="1"/>
     </row>
-    <row r="2" s="3" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="3" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -437,51 +427,27 @@
       <c r="C2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="O2" s="3" t="n">
         <v>3828</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="T2" s="3" t="n">
         <v>1</v>
@@ -504,7 +470,7 @@
   <autoFilter ref="A1:W14"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
